--- a/biology/Botanique/Zanthoxylum_acanthopodium/Zanthoxylum_acanthopodium.xlsx
+++ b/biology/Botanique/Zanthoxylum_acanthopodium/Zanthoxylum_acanthopodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Andaliman (Zanthoxylum acanthopodium) est une espèce de plantes à fleurs de la famille des Rutaceae. Elle est présente dans le sud de la Chine (Guangxi Guizhou, Sichuan, Région autonome du Tibet, et Yunnan), Bangladesh, Bhoutan, nord de l'India (Arunachal Pradesh, Assam, Manipur, Meghalaya, Mizoram, Nagaland, Sikkim, Uttar Pradesh, et Bengale-Occidental), Népal, Laos, Birmanie, nord de la Thaïlande,  Viêt Nam, Indonésie (hauteurs du nord de  Sumatra, appelé poivre de Batak), et Malaisie péninsulaire[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Andaliman (Zanthoxylum acanthopodium) est une espèce de plantes à fleurs de la famille des Rutaceae. Elle est présente dans le sud de la Chine (Guangxi Guizhou, Sichuan, Région autonome du Tibet, et Yunnan), Bangladesh, Bhoutan, nord de l'India (Arunachal Pradesh, Assam, Manipur, Meghalaya, Mizoram, Nagaland, Sikkim, Uttar Pradesh, et Bengale-Occidental), Népal, Laos, Birmanie, nord de la Thaïlande,  Viêt Nam, Indonésie (hauteurs du nord de  Sumatra, appelé poivre de Batak), et Malaisie péninsulaire
 Proche du Poivre du Sichuan (Zanthoxylum bungeanum et Zanthoxylum simulans), ses graines sont utilisées en épices et utilisées en cuisine. Son goût est toutefois un peu plus citronné et se rapproche de la citronnelle).
 En Indonésie, il est appelé andaliman. Il est très utilisé dans la cuisine Batak et Karo
 </t>
